--- a/resource_api/raporlar/dosyalar/by_customers_excel.xlsx
+++ b/resource_api/raporlar/dosyalar/by_customers_excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
@@ -71,7 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,11 +79,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -167,6 +181,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,6 +205,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -556,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:S480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="23" defaultRowHeight="14.4"/>
@@ -617,7 +653,7 @@
       </c>
       <c r="I1" s="26" t="inlineStr">
         <is>
-          <t>Toplam (CFR) ($)</t>
+          <t>Toplam (DDP) ($)</t>
         </is>
       </c>
       <c r="J1" s="8" t="n"/>
@@ -632,37 +668,37 @@
       <c r="S1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="31" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="32" t="inlineStr">
         <is>
           <t>Imperial Homes</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="33" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="34" t="n">
         <v>147852.37</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="34" t="n">
         <v>88042.02</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="34" t="n">
         <v>13635.63</v>
       </c>
-      <c r="G2" s="18" t="n">
+      <c r="G2" s="35" t="n">
         <v>87151.25999999999</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="35" t="n">
         <v>336681.28</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="34" t="n">
         <v>403756.28</v>
       </c>
       <c r="J2" s="8" t="n"/>
@@ -677,38 +713,38 @@
       <c r="S2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="A3" s="31" t="inlineStr">
         <is>
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="33" t="inlineStr">
         <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="D3" s="17" t="n">
-        <v>1125</v>
-      </c>
-      <c r="E3" s="17" t="n">
+      <c r="D3" s="34" t="n">
+        <v>32837.65</v>
+      </c>
+      <c r="E3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="n">
+      <c r="G3" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="18" t="n">
-        <v>1125</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <v>1125</v>
+      <c r="H3" s="35" t="n">
+        <v>32837.65</v>
+      </c>
+      <c r="I3" s="34" t="n">
+        <v>34207.65</v>
       </c>
       <c r="J3" s="8" t="n"/>
       <c r="K3" s="9" t="n"/>
@@ -722,37 +758,37 @@
       <c r="S3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Tamer ($)</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="33" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="34" t="n">
         <v>4781.16</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="35" t="n">
         <v>4781.16</v>
       </c>
-      <c r="I4" s="17" t="n">
+      <c r="I4" s="34" t="n">
         <v>4781.16</v>
       </c>
       <c r="J4" s="8" t="n"/>
@@ -767,37 +803,37 @@
       <c r="S4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>Cem Mermer (Cemalettin)</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="33" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="34" t="n">
         <v>16882.26</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="35" t="n">
         <v>16882.26</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="34" t="n">
         <v>16882.26</v>
       </c>
       <c r="J5" s="8" t="n"/>
@@ -812,38 +848,38 @@
       <c r="S5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Brian, Copper - USA</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="A6" s="31" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="B6" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D6" s="17" t="n">
-        <v>11569.69</v>
-      </c>
-      <c r="E6" s="17" t="n">
+      <c r="C6" s="33" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="n">
+        <v>31103.32</v>
+      </c>
+      <c r="E6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="18" t="n">
-        <v>11569.69</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>11569.69</v>
+      <c r="H6" s="35" t="n">
+        <v>31103.32</v>
+      </c>
+      <c r="I6" s="34" t="n">
+        <v>30504.09</v>
       </c>
       <c r="J6" s="8" t="n"/>
       <c r="K6" s="9" t="n"/>
@@ -857,38 +893,38 @@
       <c r="S6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>Dilamar Mermer</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C7" s="14" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D7" s="17" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="E7" s="17" t="n">
+      <c r="A7" s="31" t="inlineStr">
+        <is>
+          <t>Brian, Copper - USA</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D7" s="34" t="n">
+        <v>11569.69</v>
+      </c>
+      <c r="E7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="18" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>627.9</v>
+      <c r="H7" s="35" t="n">
+        <v>11569.69</v>
+      </c>
+      <c r="I7" s="34" t="n">
+        <v>22519.69</v>
       </c>
       <c r="J7" s="8" t="n"/>
       <c r="K7" s="9" t="n"/>
@@ -902,38 +938,38 @@
       <c r="S7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n">
-        <v>36901.76</v>
-      </c>
-      <c r="E8" s="17" t="n">
+      <c r="A8" s="31" t="inlineStr">
+        <is>
+          <t>Dilamar Mermer</t>
+        </is>
+      </c>
+      <c r="B8" s="32" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D8" s="34" t="n">
+        <v>627.9</v>
+      </c>
+      <c r="E8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="n">
-        <v>36901.76</v>
-      </c>
-      <c r="I8" s="17" t="n">
-        <v>35254.28</v>
+      <c r="H8" s="35" t="n">
+        <v>627.9</v>
+      </c>
+      <c r="I8" s="34" t="n">
+        <v>627.9</v>
       </c>
       <c r="J8" s="8" t="n"/>
       <c r="K8" s="9" t="n"/>
@@ -947,38 +983,38 @@
       <c r="S8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
-        <is>
-          <t>Villo Home - USA</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="C9" s="14" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D9" s="17" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="E9" s="17" t="n">
+      <c r="A9" s="31" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="D9" s="34" t="n">
+        <v>35719</v>
+      </c>
+      <c r="E9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="18" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="I9" s="17" t="n">
-        <v>16331.68</v>
+      <c r="H9" s="35" t="n">
+        <v>35719</v>
+      </c>
+      <c r="I9" s="34" t="n">
+        <v>35719</v>
       </c>
       <c r="J9" s="8" t="n"/>
       <c r="K9" s="9" t="n"/>
@@ -992,38 +1028,38 @@
       <c r="S9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>Prim Rose - Ghana</t>
-        </is>
-      </c>
-      <c r="B10" s="12" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>31108.05</v>
-      </c>
-      <c r="E10" s="17" t="n">
+      <c r="A10" s="31" t="inlineStr">
+        <is>
+          <t>Villo Home - USA</t>
+        </is>
+      </c>
+      <c r="B10" s="32" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D10" s="34" t="n">
+        <v>8831.68</v>
+      </c>
+      <c r="E10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="n">
-        <v>31108.05</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <v>31108.05</v>
+      <c r="H10" s="35" t="n">
+        <v>8831.68</v>
+      </c>
+      <c r="I10" s="34" t="n">
+        <v>16331.68</v>
       </c>
       <c r="J10" s="8" t="n"/>
       <c r="K10" s="9" t="n"/>
@@ -1037,38 +1073,38 @@
       <c r="S10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C11" s="14" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D11" s="17" t="n">
-        <v>420</v>
-      </c>
-      <c r="E11" s="17" t="n">
+      <c r="A11" s="31" t="inlineStr">
+        <is>
+          <t>Prim Rose - Ghana</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D11" s="34" t="n">
+        <v>31108.05</v>
+      </c>
+      <c r="E11" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="18" t="n">
-        <v>420</v>
-      </c>
-      <c r="I11" s="17" t="n">
-        <v>420</v>
+      <c r="H11" s="35" t="n">
+        <v>31108.05</v>
+      </c>
+      <c r="I11" s="34" t="n">
+        <v>31108.05</v>
       </c>
       <c r="J11" s="8" t="n"/>
       <c r="K11" s="9" t="n"/>
@@ -1082,38 +1118,38 @@
       <c r="S11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>Sean - MALTA</t>
-        </is>
-      </c>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="D12" s="17" t="n">
-        <v>949.99</v>
-      </c>
-      <c r="E12" s="17" t="n">
+      <c r="A12" s="31" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>420</v>
+      </c>
+      <c r="E12" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="18" t="n">
-        <v>949.99</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <v>1149.99</v>
+      <c r="H12" s="35" t="n">
+        <v>420</v>
+      </c>
+      <c r="I12" s="34" t="n">
+        <v>420</v>
       </c>
       <c r="J12" s="8" t="n"/>
       <c r="K12" s="9" t="n"/>
@@ -1127,38 +1163,38 @@
       <c r="S12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>Esi Okyere - Ghana</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="A13" s="31" t="inlineStr">
+        <is>
+          <t>Sean - MALTA</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C13" s="14" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="D13" s="17" t="n">
+      <c r="C13" s="33" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="D13" s="34" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="17" t="n">
-        <v>32317.71</v>
-      </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="18" t="n">
-        <v>32317.71</v>
-      </c>
-      <c r="I13" s="17" t="n">
-        <v>32317.71</v>
+      <c r="H13" s="35" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="I13" s="34" t="n">
+        <v>1149.99</v>
       </c>
       <c r="J13" s="8" t="n"/>
       <c r="K13" s="9" t="n"/>
@@ -1172,38 +1208,38 @@
       <c r="S13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>Ben Persell Thompson - UK</t>
-        </is>
-      </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="A14" s="31" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="B14" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="D14" s="17" t="n">
-        <v>300</v>
-      </c>
-      <c r="E14" s="17" t="n">
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D14" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="E14" s="34" t="n">
+        <v>32317.62</v>
+      </c>
+      <c r="F14" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="18" t="n">
-        <v>300</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>1078</v>
+      <c r="H14" s="35" t="n">
+        <v>32317.62</v>
+      </c>
+      <c r="I14" s="34" t="n">
+        <v>32317.62</v>
       </c>
       <c r="J14" s="8" t="n"/>
       <c r="K14" s="9" t="n"/>
@@ -1217,37 +1253,37 @@
       <c r="S14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="inlineStr">
+      <c r="A15" s="31" t="inlineStr">
         <is>
           <t>Mohammed Al Hoori - Bahrain</t>
         </is>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C15" s="14" t="inlineStr">
+      <c r="C15" s="33" t="inlineStr">
         <is>
           <t>Bahrain</t>
         </is>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="8" t="n"/>
@@ -1262,37 +1298,37 @@
       <c r="S15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="31" t="inlineStr">
         <is>
           <t>Bernard Osei - Ghana</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
+      <c r="C16" s="33" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="34" t="n">
         <v>35937.21</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="35" t="n">
         <v>35937.21</v>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="I16" s="34" t="n">
         <v>35937.21</v>
       </c>
       <c r="J16" s="8" t="n"/>
@@ -1307,37 +1343,37 @@
       <c r="S16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="inlineStr">
+      <c r="A17" s="31" t="inlineStr">
         <is>
           <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B17" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C17" s="14" t="inlineStr">
+      <c r="C17" s="33" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="34" t="n">
         <v>19938.57</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="17" t="n">
+      <c r="F17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="35" t="n">
         <v>19938.57</v>
       </c>
-      <c r="I17" s="17" t="n">
+      <c r="I17" s="34" t="n">
         <v>22850.09</v>
       </c>
       <c r="J17" s="8" t="n"/>
@@ -1352,37 +1388,37 @@
       <c r="S17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="31" t="inlineStr">
         <is>
           <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B18" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C18" s="14" t="inlineStr">
+      <c r="C18" s="33" t="inlineStr">
         <is>
           <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="34" t="n">
         <v>2160</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="35" t="n">
         <v>2160</v>
       </c>
-      <c r="I18" s="17" t="n">
+      <c r="I18" s="34" t="n">
         <v>2160</v>
       </c>
       <c r="J18" s="8" t="n"/>
@@ -1397,38 +1433,38 @@
       <c r="S18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="inlineStr">
+      <c r="A19" s="31" t="inlineStr">
         <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B19" s="32" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C19" s="14" t="inlineStr">
+      <c r="C19" s="33" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D19" s="17" t="n">
-        <v>6394.88</v>
-      </c>
-      <c r="E19" s="17" t="n">
+      <c r="D19" s="34" t="n">
+        <v>8029.82</v>
+      </c>
+      <c r="E19" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="18" t="n">
-        <v>6394.88</v>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>6394.88</v>
+      <c r="H19" s="35" t="n">
+        <v>8029.82</v>
+      </c>
+      <c r="I19" s="34" t="n">
+        <v>8029.82</v>
       </c>
       <c r="J19" s="8" t="n"/>
       <c r="K19" s="9" t="n"/>
@@ -1442,37 +1478,37 @@
       <c r="S19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="31" t="inlineStr">
         <is>
           <t>Henry - Ghana</t>
         </is>
       </c>
-      <c r="B20" s="12" t="inlineStr">
+      <c r="B20" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C20" s="14" t="inlineStr">
+      <c r="C20" s="33" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="34" t="n">
         <v>2400</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="35" t="n">
         <v>2400</v>
       </c>
-      <c r="I20" s="17" t="n">
+      <c r="I20" s="34" t="n">
         <v>2400</v>
       </c>
       <c r="J20" s="8" t="n"/>
@@ -1487,38 +1523,38 @@
       <c r="S20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="31" t="inlineStr">
         <is>
           <t>Cem Peker</t>
         </is>
       </c>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="B21" s="32" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C21" s="14" t="inlineStr">
+      <c r="C21" s="33" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="17" t="n">
-        <v>28777.65</v>
-      </c>
-      <c r="F21" s="17" t="n">
+      <c r="E21" s="34" t="n">
+        <v>37324.65</v>
+      </c>
+      <c r="F21" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="18" t="n">
-        <v>28777.65</v>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>28777.65</v>
+      <c r="H21" s="35" t="n">
+        <v>37324.65</v>
+      </c>
+      <c r="I21" s="34" t="n">
+        <v>37324.65</v>
       </c>
       <c r="J21" s="8" t="n"/>
       <c r="K21" s="9" t="n"/>
@@ -1532,38 +1568,38 @@
       <c r="S21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>Bethany Bristow - USA</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="A22" s="31" t="inlineStr">
+        <is>
+          <t>Thomas Gebing - DE</t>
+        </is>
+      </c>
+      <c r="B22" s="32" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C22" s="14" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="D22" s="17" t="n">
-        <v>650</v>
-      </c>
-      <c r="E22" s="17" t="n">
+      <c r="C22" s="33" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D22" s="34" t="n">
+        <v>5978.3</v>
+      </c>
+      <c r="E22" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="18" t="n">
-        <v>650</v>
-      </c>
-      <c r="I22" s="17" t="n">
-        <v>1150</v>
+      <c r="H22" s="35" t="n">
+        <v>5978.3</v>
+      </c>
+      <c r="I22" s="34" t="n">
+        <v>10128.3</v>
       </c>
       <c r="J22" s="8" t="n"/>
       <c r="K22" s="9" t="n"/>
@@ -1577,38 +1613,38 @@
       <c r="S22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="inlineStr">
-        <is>
-          <t>Thomas Gebing</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C23" s="14" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="D23" s="17" t="n">
-        <v>5777.13</v>
-      </c>
-      <c r="E23" s="17" t="n">
+      <c r="A23" s="31" t="inlineStr">
+        <is>
+          <t>İnze Mermer - Turkey</t>
+        </is>
+      </c>
+      <c r="B23" s="32" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C23" s="33" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D23" s="34" t="n">
+        <v>1469.08</v>
+      </c>
+      <c r="E23" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="18" t="n">
-        <v>5777.13</v>
-      </c>
-      <c r="I23" s="17" t="n">
-        <v>9727.129999999999</v>
+      <c r="H23" s="35" t="n">
+        <v>1469.08</v>
+      </c>
+      <c r="I23" s="34" t="n">
+        <v>1469.08</v>
       </c>
       <c r="J23" s="8" t="n"/>
       <c r="K23" s="9" t="n"/>
@@ -1624,28 +1660,36 @@
     <row r="24">
       <c r="A24" s="31" t="inlineStr">
         <is>
-          <t>Toplam</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="32" t="n">
-        <v>334607.65</v>
-      </c>
-      <c r="E24" s="32" t="n">
-        <v>149137.38</v>
-      </c>
-      <c r="F24" s="32" t="n">
-        <v>13635.63</v>
-      </c>
-      <c r="G24" s="33" t="n">
-        <v>87151.25999999999</v>
-      </c>
-      <c r="H24" s="33" t="n">
-        <v>584531.92</v>
-      </c>
-      <c r="I24" s="32" t="n">
-        <v>665798.96</v>
+          <t>Yusuf - Turkey</t>
+        </is>
+      </c>
+      <c r="B24" s="32" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C24" s="33" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D24" s="34" t="n">
+        <v>1290.7</v>
+      </c>
+      <c r="E24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35" t="n">
+        <v>1290.7</v>
+      </c>
+      <c r="I24" s="34" t="n">
+        <v>1290.7</v>
       </c>
       <c r="J24" s="8" t="n"/>
       <c r="K24" s="9" t="n"/>
@@ -1659,15 +1703,31 @@
       <c r="S24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="n"/>
+      <c r="A25" s="36" t="inlineStr">
+        <is>
+          <t>Toplam</t>
+        </is>
+      </c>
       <c r="B25" s="12" t="n"/>
       <c r="C25" s="14" t="n"/>
-      <c r="D25" s="17" t="n"/>
-      <c r="E25" s="17" t="n"/>
-      <c r="F25" s="17" t="n"/>
-      <c r="G25" s="18" t="n"/>
-      <c r="H25" s="18" t="n"/>
-      <c r="I25" s="17" t="n"/>
+      <c r="D25" s="37" t="n">
+        <v>399886.75</v>
+      </c>
+      <c r="E25" s="37" t="n">
+        <v>157684.29</v>
+      </c>
+      <c r="F25" s="37" t="n">
+        <v>13635.63</v>
+      </c>
+      <c r="G25" s="38" t="n">
+        <v>87151.25999999999</v>
+      </c>
+      <c r="H25" s="38" t="n">
+        <v>658357.9299999999</v>
+      </c>
+      <c r="I25" s="37" t="n">
+        <v>751915.22</v>
+      </c>
       <c r="J25" s="8" t="n"/>
       <c r="K25" s="9" t="n"/>
       <c r="L25" s="2" t="n"/>
@@ -1701,9 +1761,17 @@
       <c r="S26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="n"/>
-      <c r="B27" s="12" t="n"/>
-      <c r="C27" s="14" t="n"/>
+      <c r="A27" s="31" t="inlineStr">
+        <is>
+          <t>Imperial Homes</t>
+        </is>
+      </c>
+      <c r="B27" s="32" t="n">
+        <v>336681.28</v>
+      </c>
+      <c r="C27" s="33" t="n">
+        <v>403756.28</v>
+      </c>
       <c r="D27" s="17" t="n"/>
       <c r="E27" s="17" t="n"/>
       <c r="F27" s="17" t="n"/>
@@ -1722,9 +1790,17 @@
       <c r="S27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="n"/>
-      <c r="B28" s="12" t="n"/>
-      <c r="C28" s="14" t="n"/>
+      <c r="A28" s="31" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>66044.41</v>
+      </c>
+      <c r="C28" s="33" t="n">
+        <v>66044.41</v>
+      </c>
       <c r="D28" s="17" t="n"/>
       <c r="E28" s="17" t="n"/>
       <c r="F28" s="17" t="n"/>
@@ -1743,9 +1819,17 @@
       <c r="S28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="n"/>
-      <c r="B29" s="12" t="n"/>
-      <c r="C29" s="14" t="n"/>
+      <c r="A29" s="31" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="B29" s="32" t="n">
+        <v>246800.56</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>265782.85</v>
+      </c>
       <c r="D29" s="17" t="n"/>
       <c r="E29" s="17" t="n"/>
       <c r="F29" s="17" t="n"/>
@@ -1764,9 +1848,17 @@
       <c r="S29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="n"/>
-      <c r="B30" s="12" t="n"/>
-      <c r="C30" s="14" t="n"/>
+      <c r="A30" s="31" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="B30" s="32" t="n">
+        <v>8831.68</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>16331.68</v>
+      </c>
       <c r="D30" s="17" t="n"/>
       <c r="E30" s="17" t="n"/>
       <c r="F30" s="17" t="n"/>
@@ -1785,9 +1877,17 @@
       <c r="S30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="n"/>
-      <c r="B31" s="12" t="n"/>
-      <c r="C31" s="14" t="n"/>
+      <c r="A31" s="36" t="inlineStr">
+        <is>
+          <t>Toplam</t>
+        </is>
+      </c>
+      <c r="B31" s="39" t="n">
+        <v>658357.9300000001</v>
+      </c>
+      <c r="C31" s="40" t="n">
+        <v>751915.2200000001</v>
+      </c>
       <c r="D31" s="17" t="n"/>
       <c r="E31" s="17" t="n"/>
       <c r="F31" s="17" t="n"/>
@@ -11246,10 +11346,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -11259,7 +11359,7 @@
     <col width="12.44140625" customWidth="1" style="19" min="4" max="4"/>
     <col width="11.5546875" customWidth="1" style="19" min="7" max="7"/>
     <col width="12.21875" customWidth="1" style="19" min="8" max="8"/>
-    <col width="11.88671875" customWidth="1" style="19" min="9" max="9"/>
+    <col width="13" customWidth="1" style="19" min="9" max="9"/>
     <col width="10.109375" customWidth="1" style="19" min="12" max="12"/>
     <col width="12.44140625" customWidth="1" style="19" min="13" max="13"/>
     <col width="11.88671875" customWidth="1" style="19" min="14" max="14"/>
@@ -11306,7 +11406,7 @@
       </c>
       <c r="D2" s="21" t="inlineStr">
         <is>
-          <t>Toplam (CFR)</t>
+          <t>Toplam (DDP)</t>
         </is>
       </c>
       <c r="F2" s="29" t="inlineStr">
@@ -11324,7 +11424,7 @@
       </c>
       <c r="I2" s="21" t="inlineStr">
         <is>
-          <t>Toplam (CFR)</t>
+          <t>Toplam (DDP)</t>
         </is>
       </c>
       <c r="K2" s="29" t="inlineStr">
@@ -11342,7 +11442,7 @@
       </c>
       <c r="N2" s="21" t="inlineStr">
         <is>
-          <t>Toplam (CFR)</t>
+          <t>Toplam (DDP)</t>
         </is>
       </c>
       <c r="P2" s="29" t="inlineStr">
@@ -11360,406 +11460,419 @@
       </c>
       <c r="S2" s="21" t="inlineStr">
         <is>
-          <t>Toplam (CFR)</t>
+          <t>Toplam (DDP)</t>
         </is>
       </c>
     </row>
     <row r="3" customFormat="1" s="19">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="41" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="41" t="n">
         <v>147852.37</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="41" t="n">
         <v>336681.28</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="41" t="n">
         <v>403756.28</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="41" t="inlineStr">
         <is>
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1125</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1125</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1125</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="G3" s="41" t="n">
+        <v>32837.65</v>
+      </c>
+      <c r="H3" s="41" t="n">
+        <v>32837.65</v>
+      </c>
+      <c r="I3" s="41" t="n">
+        <v>34207.65</v>
+      </c>
+      <c r="K3" s="41" t="inlineStr">
         <is>
           <t>Cem Mermer (Cemalettin)</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="41" t="n">
         <v>16882.26</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="41" t="n">
         <v>16882.26</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="41" t="n">
         <v>16882.26</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="41" t="inlineStr">
         <is>
           <t>Villo Home - USA</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="41" t="n">
         <v>8831.68</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="41" t="n">
         <v>8831.68</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="41" t="n">
         <v>16331.68</v>
       </c>
     </row>
     <row r="4" customFormat="1" s="19">
-      <c r="A4" s="34" t="inlineStr">
+      <c r="A4" s="42" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="42" t="n">
         <v>147852.37</v>
       </c>
-      <c r="C4" s="34" t="n">
+      <c r="C4" s="42" t="n">
         <v>336681.28</v>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="42" t="n">
         <v>403756.28</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>Tamer ($)</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="41" t="n">
         <v>4781.16</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="41" t="n">
         <v>4781.16</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="41" t="n">
         <v>4781.16</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="41" t="inlineStr">
         <is>
           <t>Dilamar Mermer</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="41" t="n">
         <v>627.9</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="41" t="n">
         <v>627.9</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="41" t="n">
         <v>627.9</v>
       </c>
-      <c r="P4" s="34" t="inlineStr">
+      <c r="P4" s="42" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="Q4" s="34" t="n">
+      <c r="Q4" s="42" t="n">
         <v>8831.68</v>
       </c>
-      <c r="R4" s="34" t="n">
+      <c r="R4" s="42" t="n">
         <v>8831.68</v>
       </c>
-      <c r="S4" s="34" t="n">
+      <c r="S4" s="42" t="n">
         <v>16331.68</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="19">
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="41" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="G5" s="41" t="n">
+        <v>31103.32</v>
+      </c>
+      <c r="H5" s="41" t="n">
+        <v>31103.32</v>
+      </c>
+      <c r="I5" s="41" t="n">
+        <v>30504.09</v>
+      </c>
+      <c r="K5" s="41" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="L5" s="41" t="n">
+        <v>420</v>
+      </c>
+      <c r="M5" s="41" t="n">
+        <v>420</v>
+      </c>
+      <c r="N5" s="41" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" s="19">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>Brian, Copper - USA</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" s="41" t="n">
         <v>11569.69</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" s="41" t="n">
         <v>11569.69</v>
       </c>
-      <c r="I5" t="n">
-        <v>11569.69</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>420</v>
-      </c>
-      <c r="M5" t="n">
-        <v>420</v>
-      </c>
-      <c r="N5" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" s="19">
-      <c r="F6" t="inlineStr">
+      <c r="I6" s="41" t="n">
+        <v>22519.69</v>
+      </c>
+      <c r="K6" s="41" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="L6" s="41" t="n">
+        <v>8029.82</v>
+      </c>
+      <c r="M6" s="41" t="n">
+        <v>8029.82</v>
+      </c>
+      <c r="N6" s="41" t="n">
+        <v>8029.82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" s="19">
+      <c r="F7" s="41" t="inlineStr">
         <is>
           <t>Kirill - Russia</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>36901.76</v>
-      </c>
-      <c r="H6" t="n">
-        <v>36901.76</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35254.28</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>6394.88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6394.88</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6394.88</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" s="19">
-      <c r="F7" t="inlineStr">
+      <c r="G7" s="41" t="n">
+        <v>35719</v>
+      </c>
+      <c r="H7" s="41" t="n">
+        <v>35719</v>
+      </c>
+      <c r="I7" s="41" t="n">
+        <v>35719</v>
+      </c>
+      <c r="K7" s="41" t="inlineStr">
+        <is>
+          <t>Cem Peker</t>
+        </is>
+      </c>
+      <c r="L7" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="41" t="n">
+        <v>37324.65</v>
+      </c>
+      <c r="N7" s="41" t="n">
+        <v>37324.65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" s="19">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>Prim Rose - Ghana</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" s="41" t="n">
         <v>31108.05</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" s="41" t="n">
         <v>31108.05</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" s="41" t="n">
         <v>31108.05</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Cem Peker</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+      <c r="K8" s="41" t="inlineStr">
+        <is>
+          <t>İnze Mermer - Turkey</t>
+        </is>
+      </c>
+      <c r="L8" s="41" t="n">
+        <v>1469.08</v>
+      </c>
+      <c r="M8" s="41" t="n">
+        <v>1469.08</v>
+      </c>
+      <c r="N8" s="41" t="n">
+        <v>1469.08</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="19">
+      <c r="F9" s="41" t="inlineStr">
+        <is>
+          <t>Sean - MALTA</t>
+        </is>
+      </c>
+      <c r="G9" s="41" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="H9" s="41" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="I9" s="41" t="n">
+        <v>1149.99</v>
+      </c>
+      <c r="K9" s="41" t="inlineStr">
+        <is>
+          <t>Yusuf - Turkey</t>
+        </is>
+      </c>
+      <c r="L9" s="41" t="n">
+        <v>1290.7</v>
+      </c>
+      <c r="M9" s="41" t="n">
+        <v>1290.7</v>
+      </c>
+      <c r="N9" s="41" t="n">
+        <v>1290.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" s="19">
+      <c r="F10" s="41" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="G10" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
-        <v>28777.65</v>
-      </c>
-      <c r="N7" t="n">
-        <v>28777.65</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" s="19">
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sean - MALTA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>949.99</v>
-      </c>
-      <c r="H8" t="n">
-        <v>949.99</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1149.99</v>
-      </c>
-      <c r="K8" s="34" t="inlineStr">
+      <c r="H10" s="41" t="n">
+        <v>32317.62</v>
+      </c>
+      <c r="I10" s="41" t="n">
+        <v>32317.62</v>
+      </c>
+      <c r="K10" s="42" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="L8" s="34" t="n">
-        <v>24325.04</v>
-      </c>
-      <c r="M8" s="34" t="n">
-        <v>53102.69</v>
-      </c>
-      <c r="N8" s="34" t="n">
-        <v>53102.69</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" s="19">
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Esi Okyere - Ghana</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="L10" s="42" t="n">
+        <v>28719.76</v>
+      </c>
+      <c r="M10" s="42" t="n">
+        <v>66044.41</v>
+      </c>
+      <c r="N10" s="42" t="n">
+        <v>66044.41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" s="19">
+      <c r="F11" s="41" t="inlineStr">
+        <is>
+          <t>Mohammed Al Hoori - Bahrain</t>
+        </is>
+      </c>
+      <c r="G11" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>32317.71</v>
-      </c>
-      <c r="I9" t="n">
-        <v>32317.71</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" s="19">
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ben Persell Thompson - UK</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>300</v>
-      </c>
-      <c r="H10" t="n">
-        <v>300</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" s="19">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Mohammed Al Hoori - Bahrain</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="1" s="19">
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="41" t="inlineStr">
         <is>
           <t>Bernard Osei - Ghana</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="41" t="n">
         <v>35937.21</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="41" t="n">
         <v>35937.21</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="41" t="n">
         <v>35937.21</v>
       </c>
     </row>
     <row r="13" customFormat="1" s="19">
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="41" t="inlineStr">
         <is>
           <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="41" t="n">
         <v>19938.57</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="41" t="n">
         <v>19938.57</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="41" t="n">
         <v>22850.09</v>
       </c>
     </row>
     <row r="14" customFormat="1" s="19">
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="41" t="inlineStr">
         <is>
           <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="41" t="n">
         <v>2160</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="41" t="n">
         <v>2160</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="41" t="n">
         <v>2160</v>
       </c>
     </row>
     <row r="15" customFormat="1" s="19">
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="41" t="inlineStr">
         <is>
           <t>Henry - Ghana</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="41" t="n">
         <v>2400</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="41" t="n">
         <v>2400</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="41" t="n">
         <v>2400</v>
       </c>
     </row>
     <row r="16" customFormat="1" s="19">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bethany Bristow - USA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>650</v>
-      </c>
-      <c r="H16" t="n">
-        <v>650</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1150</v>
+      <c r="F16" s="41" t="inlineStr">
+        <is>
+          <t>Thomas Gebing - DE</t>
+        </is>
+      </c>
+      <c r="G16" s="41" t="n">
+        <v>5978.3</v>
+      </c>
+      <c r="H16" s="41" t="n">
+        <v>5978.3</v>
+      </c>
+      <c r="I16" s="41" t="n">
+        <v>10128.3</v>
       </c>
     </row>
     <row r="17" customFormat="1" s="19">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Thomas Gebing</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>5777.13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5777.13</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9727.129999999999</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" s="19">
-      <c r="F18" s="34" t="inlineStr">
+      <c r="F17" s="42" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="G18" s="34" t="n">
-        <v>153598.56</v>
-      </c>
-      <c r="H18" s="34" t="n">
-        <v>185916.27</v>
-      </c>
-      <c r="I18" s="34" t="n">
-        <v>192608.31</v>
-      </c>
-    </row>
+      <c r="G17" s="42" t="n">
+        <v>214482.94</v>
+      </c>
+      <c r="H17" s="42" t="n">
+        <v>246800.56</v>
+      </c>
+      <c r="I17" s="42" t="n">
+        <v>265782.85</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" s="19"/>
     <row r="19" customFormat="1" s="19"/>
     <row r="20" customFormat="1" s="19"/>
     <row r="21" customFormat="1" s="19"/>

--- a/resource_api/raporlar/dosyalar/by_customers_excel.xlsx
+++ b/resource_api/raporlar/dosyalar/by_customers_excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
@@ -169,17 +169,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +192,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -204,6 +203,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -578,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:S480"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="23" defaultRowHeight="14.4"/>
@@ -626,37 +628,41 @@
           <t>Ülke</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
+        <is>
+          <t>2023 ($)</t>
+        </is>
+      </c>
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>2022 ($)</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>2021 ($)</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="G1" s="26" t="inlineStr">
         <is>
           <t>2020 ($)</t>
         </is>
       </c>
-      <c r="G1" s="28" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>2019 ($)</t>
         </is>
       </c>
-      <c r="H1" s="28" t="inlineStr">
+      <c r="I1" s="26" t="inlineStr">
         <is>
           <t>Toplam (FOB) ($)</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Toplam (DDP) ($)</t>
         </is>
       </c>
-      <c r="J1" s="8" t="n"/>
       <c r="K1" s="9" t="n"/>
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="8" t="n"/>
@@ -668,40 +674,42 @@
       <c r="S1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="inlineStr">
+      <c r="A2" s="29" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="30" t="inlineStr">
         <is>
           <t>Imperial Homes</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C2" s="31" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D2" s="34" t="n">
+      <c r="D2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32" t="n">
         <v>147852.37</v>
       </c>
-      <c r="E2" s="34" t="n">
+      <c r="F2" s="32" t="n">
         <v>88042.02</v>
       </c>
-      <c r="F2" s="34" t="n">
+      <c r="G2" s="33" t="n">
         <v>13635.63</v>
       </c>
-      <c r="G2" s="35" t="n">
+      <c r="H2" s="33" t="n">
         <v>87151.25999999999</v>
       </c>
-      <c r="H2" s="35" t="n">
+      <c r="I2" s="32" t="n">
         <v>336681.28</v>
       </c>
-      <c r="I2" s="34" t="n">
+      <c r="J2" s="34" t="n">
         <v>403756.28</v>
       </c>
-      <c r="J2" s="8" t="n"/>
       <c r="K2" s="9" t="n"/>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="8" t="n"/>
@@ -713,40 +721,42 @@
       <c r="S2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="B3" s="32" t="inlineStr">
+      <c r="B3" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C3" s="33" t="inlineStr">
+      <c r="C3" s="31" t="inlineStr">
         <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="D3" s="34" t="n">
-        <v>32837.65</v>
-      </c>
-      <c r="E3" s="34" t="n">
+      <c r="D3" s="32" t="n">
+        <v>41728.8</v>
+      </c>
+      <c r="E3" s="32" t="n">
+        <v>1762.5</v>
+      </c>
+      <c r="F3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="34" t="n">
+      <c r="G3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="35" t="n">
+      <c r="H3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="35" t="n">
-        <v>32837.65</v>
-      </c>
-      <c r="I3" s="34" t="n">
-        <v>34207.65</v>
-      </c>
-      <c r="J3" s="8" t="n"/>
+      <c r="I3" s="32" t="n">
+        <v>43491.3</v>
+      </c>
+      <c r="J3" s="34" t="n">
+        <v>43491.3</v>
+      </c>
       <c r="K3" s="9" t="n"/>
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="8" t="n"/>
@@ -758,40 +768,42 @@
       <c r="S3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="B4" s="32" t="inlineStr">
+      <c r="B4" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C4" s="33" t="inlineStr">
+      <c r="C4" s="31" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="D4" s="34" t="n">
-        <v>4781.16</v>
-      </c>
-      <c r="E4" s="34" t="n">
+      <c r="D4" s="32" t="n">
+        <v>91004.86</v>
+      </c>
+      <c r="E4" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="34" t="n">
+      <c r="F4" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="35" t="n">
+      <c r="G4" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="35" t="n">
-        <v>4781.16</v>
-      </c>
-      <c r="I4" s="34" t="n">
-        <v>4781.16</v>
-      </c>
-      <c r="J4" s="8" t="n"/>
+      <c r="H4" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="n">
+        <v>91004.86</v>
+      </c>
+      <c r="J4" s="34" t="n">
+        <v>91004.86</v>
+      </c>
       <c r="K4" s="9" t="n"/>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="8" t="n"/>
@@ -803,40 +815,42 @@
       <c r="S4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
-          <t>Cem Mermer (Cemalettin)</t>
+          <t>Maya</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
+      <c r="B5" s="30" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmer</t>
         </is>
       </c>
-      <c r="C5" s="33" t="inlineStr">
+      <c r="C5" s="31" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United States</t>
         </is>
       </c>
-      <c r="D5" s="34" t="n">
-        <v>16882.26</v>
-      </c>
-      <c r="E5" s="34" t="n">
+      <c r="D5" s="32" t="n">
+        <v>4818.95</v>
+      </c>
+      <c r="E5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="34" t="n">
+      <c r="F5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="35" t="n">
+      <c r="G5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="35" t="n">
-        <v>16882.26</v>
-      </c>
-      <c r="I5" s="34" t="n">
-        <v>16882.26</v>
-      </c>
-      <c r="J5" s="8" t="n"/>
+      <c r="H5" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32" t="n">
+        <v>4818.95</v>
+      </c>
+      <c r="J5" s="34" t="n">
+        <v>4818.95</v>
+      </c>
       <c r="K5" s="9" t="n"/>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="8" t="n"/>
@@ -848,42 +862,42 @@
       <c r="S5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B6" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C6" s="33" t="inlineStr">
+      <c r="C6" s="31" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Russia</t>
         </is>
       </c>
-      <c r="D6" s="34" t="n">
-        <v>31103.32</v>
-      </c>
-      <c r="E6" s="34" t="n">
+      <c r="D6" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="34" t="n">
+      <c r="E6" s="32" t="n">
+        <v>42037</v>
+      </c>
+      <c r="F6" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="35" t="n">
+      <c r="G6" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="35" t="n">
-        <v>31103.32</v>
-      </c>
-      <c r="I6" s="34" t="n">
-        <v>30504.09</v>
-      </c>
-      <c r="J6" s="8" t="n"/>
-      <c r="K6" s="9" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="H6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32" t="n">
+        <v>42037</v>
+      </c>
+      <c r="J6" s="34" t="n">
+        <v>42037</v>
+      </c>
       <c r="M6" s="8" t="n"/>
       <c r="N6" s="9" t="n"/>
       <c r="O6" s="9" t="n"/>
@@ -893,40 +907,42 @@
       <c r="S6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
-          <t>Brian, Copper - USA</t>
+          <t>Ds Antik Mermer</t>
         </is>
       </c>
-      <c r="B7" s="32" t="inlineStr">
+      <c r="B7" s="30" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C7" s="33" t="inlineStr">
+      <c r="C7" s="31" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Turkey</t>
         </is>
       </c>
-      <c r="D7" s="34" t="n">
-        <v>11569.69</v>
-      </c>
-      <c r="E7" s="34" t="n">
+      <c r="D7" s="32" t="n">
+        <v>2288.36</v>
+      </c>
+      <c r="E7" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="34" t="n">
+      <c r="F7" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="35" t="n">
+      <c r="G7" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="35" t="n">
-        <v>11569.69</v>
-      </c>
-      <c r="I7" s="34" t="n">
-        <v>22519.69</v>
-      </c>
-      <c r="J7" s="8" t="n"/>
+      <c r="H7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32" t="n">
+        <v>2288.36</v>
+      </c>
+      <c r="J7" s="34" t="n">
+        <v>2288.36</v>
+      </c>
       <c r="K7" s="9" t="n"/>
       <c r="L7" s="2" t="n"/>
       <c r="M7" s="8" t="n"/>
@@ -938,40 +954,42 @@
       <c r="S7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
-          <t>Dilamar Mermer</t>
+          <t>Villo Home - USA</t>
         </is>
       </c>
-      <c r="B8" s="32" t="inlineStr">
+      <c r="B8" s="30" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmer</t>
         </is>
       </c>
-      <c r="C8" s="33" t="inlineStr">
+      <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United States</t>
         </is>
       </c>
-      <c r="D8" s="34" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="E8" s="34" t="n">
+      <c r="D8" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="34" t="n">
+      <c r="E8" s="32" t="n">
+        <v>14202.82</v>
+      </c>
+      <c r="F8" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="35" t="n">
+      <c r="G8" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="35" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="I8" s="34" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="J8" s="8" t="n"/>
+      <c r="H8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="n">
+        <v>14202.82</v>
+      </c>
+      <c r="J8" s="34" t="n">
+        <v>14202.82</v>
+      </c>
       <c r="K8" s="9" t="n"/>
       <c r="L8" s="2" t="n"/>
       <c r="M8" s="8" t="n"/>
@@ -983,40 +1001,42 @@
       <c r="S8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Sanya Dogaltas - Turkey</t>
         </is>
       </c>
-      <c r="B9" s="32" t="inlineStr">
+      <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C9" s="33" t="inlineStr">
+      <c r="C9" s="31" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Turkey</t>
         </is>
       </c>
-      <c r="D9" s="34" t="n">
-        <v>35719</v>
-      </c>
-      <c r="E9" s="34" t="n">
+      <c r="D9" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="34" t="n">
+      <c r="E9" s="32" t="n">
+        <v>420</v>
+      </c>
+      <c r="F9" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="35" t="n">
+      <c r="G9" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="n">
-        <v>35719</v>
-      </c>
-      <c r="I9" s="34" t="n">
-        <v>35719</v>
-      </c>
-      <c r="J9" s="8" t="n"/>
+      <c r="H9" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32" t="n">
+        <v>420</v>
+      </c>
+      <c r="J9" s="34" t="n">
+        <v>420</v>
+      </c>
       <c r="K9" s="9" t="n"/>
       <c r="L9" s="2" t="n"/>
       <c r="M9" s="8" t="n"/>
@@ -1028,40 +1048,42 @@
       <c r="S9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="inlineStr">
+      <c r="A10" s="29" t="inlineStr">
         <is>
-          <t>Villo Home - USA</t>
+          <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
-      <c r="C10" s="33" t="inlineStr">
+      <c r="C10" s="31" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
-      <c r="D10" s="34" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="E10" s="34" t="n">
+      <c r="D10" s="32" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="34" t="n">
+      <c r="F10" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="35" t="n">
+      <c r="G10" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="35" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="I10" s="34" t="n">
-        <v>16331.68</v>
-      </c>
-      <c r="J10" s="8" t="n"/>
+      <c r="H10" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J10" s="34" t="n">
+        <v>1600</v>
+      </c>
       <c r="K10" s="9" t="n"/>
       <c r="L10" s="2" t="n"/>
       <c r="M10" s="8" t="n"/>
@@ -1073,40 +1095,42 @@
       <c r="S10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>Esi Okyere - Ghana</t>
         </is>
       </c>
-      <c r="B11" s="32" t="inlineStr">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C11" s="33" t="inlineStr">
+      <c r="C11" s="31" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D11" s="34" t="n">
-        <v>31108.05</v>
-      </c>
-      <c r="E11" s="34" t="n">
+      <c r="D11" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="E11" s="32" t="n">
+        <v>9378.35</v>
+      </c>
+      <c r="F11" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="35" t="n">
+      <c r="G11" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="35" t="n">
-        <v>31108.05</v>
-      </c>
-      <c r="I11" s="34" t="n">
-        <v>31108.05</v>
-      </c>
-      <c r="J11" s="8" t="n"/>
+      <c r="H11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32" t="n">
+        <v>9378.35</v>
+      </c>
+      <c r="J11" s="34" t="n">
+        <v>9378.35</v>
+      </c>
       <c r="K11" s="9" t="n"/>
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="8" t="n"/>
@@ -1118,40 +1142,42 @@
       <c r="S11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
-      <c r="B12" s="32" t="inlineStr">
+      <c r="B12" s="30" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
-      <c r="C12" s="33" t="inlineStr">
+      <c r="C12" s="31" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Ghana</t>
         </is>
       </c>
-      <c r="D12" s="34" t="n">
-        <v>420</v>
-      </c>
-      <c r="E12" s="34" t="n">
+      <c r="D12" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="34" t="n">
+      <c r="E12" s="32" t="n">
+        <v>35937.21</v>
+      </c>
+      <c r="F12" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="35" t="n">
+      <c r="G12" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="35" t="n">
-        <v>420</v>
-      </c>
-      <c r="I12" s="34" t="n">
-        <v>420</v>
-      </c>
-      <c r="J12" s="8" t="n"/>
+      <c r="H12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32" t="n">
+        <v>35937.21</v>
+      </c>
+      <c r="J12" s="34" t="n">
+        <v>35937.21</v>
+      </c>
       <c r="K12" s="9" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="8" t="n"/>
@@ -1163,40 +1189,42 @@
       <c r="S12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="inlineStr">
+      <c r="A13" s="29" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
-      <c r="B13" s="32" t="inlineStr">
+      <c r="B13" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C13" s="33" t="inlineStr">
+      <c r="C13" s="31" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Turkey</t>
         </is>
       </c>
-      <c r="D13" s="34" t="n">
-        <v>949.99</v>
-      </c>
-      <c r="E13" s="34" t="n">
+      <c r="D13" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="34" t="n">
+      <c r="E13" s="32" t="n">
+        <v>19938.57</v>
+      </c>
+      <c r="F13" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="35" t="n">
+      <c r="G13" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="35" t="n">
-        <v>949.99</v>
-      </c>
-      <c r="I13" s="34" t="n">
-        <v>1149.99</v>
-      </c>
-      <c r="J13" s="8" t="n"/>
+      <c r="H13" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32" t="n">
+        <v>19938.57</v>
+      </c>
+      <c r="J13" s="34" t="n">
+        <v>25761.61</v>
+      </c>
       <c r="K13" s="9" t="n"/>
       <c r="L13" s="2" t="n"/>
       <c r="M13" s="8" t="n"/>
@@ -1208,40 +1236,42 @@
       <c r="S13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="inlineStr">
+      <c r="A14" s="29" t="inlineStr">
         <is>
-          <t>Esi Okyere - Ghana</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
-      <c r="B14" s="32" t="inlineStr">
+      <c r="B14" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C14" s="33" t="inlineStr">
+      <c r="C14" s="31" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="D14" s="34" t="n">
+      <c r="D14" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="34" t="n">
-        <v>32317.62</v>
-      </c>
-      <c r="F14" s="34" t="n">
+      <c r="E14" s="32" t="n">
+        <v>71913.2</v>
+      </c>
+      <c r="F14" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="35" t="n">
+      <c r="G14" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="35" t="n">
-        <v>32317.62</v>
-      </c>
-      <c r="I14" s="34" t="n">
-        <v>32317.62</v>
-      </c>
-      <c r="J14" s="8" t="n"/>
+      <c r="H14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32" t="n">
+        <v>71913.2</v>
+      </c>
+      <c r="J14" s="34" t="n">
+        <v>70545.2</v>
+      </c>
       <c r="K14" s="9" t="n"/>
       <c r="L14" s="2" t="n"/>
       <c r="M14" s="8" t="n"/>
@@ -1253,40 +1283,42 @@
       <c r="S14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="inlineStr">
+      <c r="A15" s="29" t="inlineStr">
         <is>
-          <t>Mohammed Al Hoori - Bahrain</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="B15" s="32" t="inlineStr">
+      <c r="B15" s="30" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C15" s="33" t="inlineStr">
+      <c r="C15" s="31" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Turkey</t>
         </is>
       </c>
-      <c r="D15" s="34" t="n">
+      <c r="D15" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="32" t="n">
+        <v>9198.49</v>
+      </c>
+      <c r="F15" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="34" t="n">
+      <c r="G15" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="35" t="n">
+      <c r="H15" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8" t="n"/>
+      <c r="I15" s="32" t="n">
+        <v>9198.49</v>
+      </c>
+      <c r="J15" s="34" t="n">
+        <v>9198.49</v>
+      </c>
       <c r="K15" s="9" t="n"/>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="8" t="n"/>
@@ -1298,40 +1330,42 @@
       <c r="S15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="inlineStr">
+      <c r="A16" s="29" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
-      <c r="B16" s="32" t="inlineStr">
+      <c r="B16" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C16" s="33" t="inlineStr">
+      <c r="C16" s="31" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D16" s="34" t="n">
-        <v>35937.21</v>
-      </c>
-      <c r="E16" s="34" t="n">
+      <c r="D16" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="34" t="n">
+      <c r="E16" s="32" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F16" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="35" t="n">
+      <c r="G16" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="35" t="n">
-        <v>35937.21</v>
-      </c>
-      <c r="I16" s="34" t="n">
-        <v>35937.21</v>
-      </c>
-      <c r="J16" s="8" t="n"/>
+      <c r="H16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32" t="n">
+        <v>2400</v>
+      </c>
+      <c r="J16" s="34" t="n">
+        <v>2400</v>
+      </c>
       <c r="K16" s="9" t="n"/>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="8" t="n"/>
@@ -1343,40 +1377,42 @@
       <c r="S16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="inlineStr">
+      <c r="A17" s="29" t="inlineStr">
         <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
+          <t>Cem Peker</t>
         </is>
       </c>
-      <c r="B17" s="32" t="inlineStr">
+      <c r="B17" s="30" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C17" s="33" t="inlineStr">
+      <c r="C17" s="31" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D17" s="34" t="n">
-        <v>19938.57</v>
-      </c>
-      <c r="E17" s="34" t="n">
+      <c r="D17" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="34" t="n">
+      <c r="E17" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="35" t="n">
+      <c r="F17" s="32" t="n">
+        <v>10717.2</v>
+      </c>
+      <c r="G17" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="35" t="n">
-        <v>19938.57</v>
-      </c>
-      <c r="I17" s="34" t="n">
-        <v>22850.09</v>
-      </c>
-      <c r="J17" s="8" t="n"/>
+      <c r="H17" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32" t="n">
+        <v>10717.2</v>
+      </c>
+      <c r="J17" s="34" t="n">
+        <v>10717.2</v>
+      </c>
       <c r="K17" s="9" t="n"/>
       <c r="L17" s="2" t="n"/>
       <c r="M17" s="8" t="n"/>
@@ -1388,40 +1424,42 @@
       <c r="S17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="inlineStr">
+      <c r="A18" s="29" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Carl Max - Ghana</t>
         </is>
       </c>
-      <c r="B18" s="32" t="inlineStr">
+      <c r="B18" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C18" s="33" t="inlineStr">
+      <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ghana</t>
         </is>
       </c>
-      <c r="D18" s="34" t="n">
-        <v>2160</v>
-      </c>
-      <c r="E18" s="34" t="n">
+      <c r="D18" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="34" t="n">
+      <c r="E18" s="32" t="n">
+        <v>82964.67</v>
+      </c>
+      <c r="F18" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="35" t="n">
+      <c r="G18" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="35" t="n">
-        <v>2160</v>
-      </c>
-      <c r="I18" s="34" t="n">
-        <v>2160</v>
-      </c>
-      <c r="J18" s="8" t="n"/>
+      <c r="H18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="32" t="n">
+        <v>82964.67</v>
+      </c>
+      <c r="J18" s="34" t="n">
+        <v>86564.67</v>
+      </c>
       <c r="K18" s="9" t="n"/>
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="8" t="n"/>
@@ -1433,40 +1471,42 @@
       <c r="S18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="inlineStr">
+      <c r="A19" s="29" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Donald Gorski - USA</t>
         </is>
       </c>
-      <c r="B19" s="32" t="inlineStr">
+      <c r="B19" s="30" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
-      <c r="C19" s="33" t="inlineStr">
+      <c r="C19" s="31" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United States</t>
         </is>
       </c>
-      <c r="D19" s="34" t="n">
-        <v>8029.82</v>
-      </c>
-      <c r="E19" s="34" t="n">
+      <c r="D19" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="34" t="n">
+      <c r="E19" s="32" t="n">
+        <v>5356.58</v>
+      </c>
+      <c r="F19" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="35" t="n">
+      <c r="G19" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="35" t="n">
-        <v>8029.82</v>
-      </c>
-      <c r="I19" s="34" t="n">
-        <v>8029.82</v>
-      </c>
-      <c r="J19" s="8" t="n"/>
+      <c r="H19" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32" t="n">
+        <v>5356.58</v>
+      </c>
+      <c r="J19" s="34" t="n">
+        <v>5883.68</v>
+      </c>
       <c r="K19" s="9" t="n"/>
       <c r="L19" s="2" t="n"/>
       <c r="M19" s="8" t="n"/>
@@ -1478,40 +1518,42 @@
       <c r="S19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="inlineStr">
+      <c r="A20" s="29" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Mama Abui - Ghana</t>
         </is>
       </c>
-      <c r="B20" s="32" t="inlineStr">
+      <c r="B20" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="C20" s="33" t="inlineStr">
+      <c r="C20" s="31" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="D20" s="34" t="n">
-        <v>2400</v>
-      </c>
-      <c r="E20" s="34" t="n">
+      <c r="D20" s="32" t="n">
+        <v>30081.67</v>
+      </c>
+      <c r="E20" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="34" t="n">
+      <c r="F20" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="35" t="n">
+      <c r="G20" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="35" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="34" t="n">
-        <v>2400</v>
-      </c>
-      <c r="J20" s="8" t="n"/>
+      <c r="H20" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="32" t="n">
+        <v>30081.67</v>
+      </c>
+      <c r="J20" s="34" t="n">
+        <v>33731.67</v>
+      </c>
       <c r="K20" s="9" t="n"/>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="8" t="n"/>
@@ -1523,40 +1565,34 @@
       <c r="S20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="inlineStr">
+      <c r="A21" s="35" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Toplam</t>
         </is>
       </c>
-      <c r="B21" s="32" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C21" s="33" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="34" t="n">
-        <v>37324.65</v>
-      </c>
-      <c r="F21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35" t="n">
-        <v>37324.65</v>
-      </c>
-      <c r="I21" s="34" t="n">
-        <v>37324.65</v>
-      </c>
-      <c r="J21" s="8" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="36" t="n">
+        <v>171522.64</v>
+      </c>
+      <c r="E21" s="36" t="n">
+        <v>443361.76</v>
+      </c>
+      <c r="F21" s="36" t="n">
+        <v>98759.22</v>
+      </c>
+      <c r="G21" s="37" t="n">
+        <v>13635.63</v>
+      </c>
+      <c r="H21" s="37" t="n">
+        <v>87151.25999999999</v>
+      </c>
+      <c r="I21" s="36" t="n">
+        <v>814430.5099999998</v>
+      </c>
+      <c r="J21" s="38" t="n">
+        <v>893737.6499999999</v>
+      </c>
       <c r="K21" s="9" t="n"/>
       <c r="L21" s="2" t="n"/>
       <c r="M21" s="8" t="n"/>
@@ -1568,39 +1604,15 @@
       <c r="S21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="31" t="inlineStr">
-        <is>
-          <t>Thomas Gebing - DE</t>
-        </is>
-      </c>
-      <c r="B22" s="32" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C22" s="33" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="D22" s="34" t="n">
-        <v>5978.3</v>
-      </c>
-      <c r="E22" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="35" t="n">
-        <v>5978.3</v>
-      </c>
-      <c r="I22" s="34" t="n">
-        <v>10128.3</v>
-      </c>
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="18" t="n"/>
+      <c r="H22" s="18" t="n"/>
+      <c r="I22" s="17" t="n"/>
       <c r="J22" s="8" t="n"/>
       <c r="K22" s="9" t="n"/>
       <c r="L22" s="2" t="n"/>
@@ -1613,39 +1625,23 @@
       <c r="S22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="31" t="inlineStr">
+      <c r="A23" s="29" t="inlineStr">
         <is>
-          <t>İnze Mermer - Turkey</t>
+          <t>Imperial Homes</t>
         </is>
       </c>
-      <c r="B23" s="32" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C23" s="33" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D23" s="34" t="n">
-        <v>1469.08</v>
-      </c>
-      <c r="E23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="35" t="n">
-        <v>1469.08</v>
-      </c>
-      <c r="I23" s="34" t="n">
-        <v>1469.08</v>
-      </c>
+      <c r="B23" s="30" t="n">
+        <v>336681.28</v>
+      </c>
+      <c r="C23" s="31" t="n">
+        <v>403756.28</v>
+      </c>
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="17" t="n"/>
+      <c r="F23" s="17" t="n"/>
+      <c r="G23" s="18" t="n"/>
+      <c r="H23" s="18" t="n"/>
+      <c r="I23" s="17" t="n"/>
       <c r="J23" s="8" t="n"/>
       <c r="K23" s="9" t="n"/>
       <c r="L23" s="2" t="n"/>
@@ -1658,39 +1654,23 @@
       <c r="S23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="31" t="inlineStr">
-        <is>
-          <t>Yusuf - Turkey</t>
-        </is>
-      </c>
-      <c r="B24" s="32" t="inlineStr">
+      <c r="A24" s="29" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C24" s="33" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D24" s="34" t="n">
-        <v>1290.7</v>
-      </c>
-      <c r="E24" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="35" t="n">
-        <v>1290.7</v>
-      </c>
-      <c r="I24" s="34" t="n">
-        <v>1290.7</v>
-      </c>
+      <c r="B24" s="30" t="n">
+        <v>22624.05</v>
+      </c>
+      <c r="C24" s="31" t="n">
+        <v>22624.05</v>
+      </c>
+      <c r="D24" s="17" t="n"/>
+      <c r="E24" s="17" t="n"/>
+      <c r="F24" s="17" t="n"/>
+      <c r="G24" s="18" t="n"/>
+      <c r="H24" s="18" t="n"/>
+      <c r="I24" s="17" t="n"/>
       <c r="J24" s="8" t="n"/>
       <c r="K24" s="9" t="n"/>
       <c r="L24" s="2" t="n"/>
@@ -1703,31 +1683,23 @@
       <c r="S24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="36" t="inlineStr">
+      <c r="A25" s="29" t="inlineStr">
         <is>
-          <t>Toplam</t>
+          <t>Mekmar</t>
         </is>
       </c>
-      <c r="B25" s="12" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="37" t="n">
-        <v>399886.75</v>
-      </c>
-      <c r="E25" s="37" t="n">
-        <v>157684.29</v>
-      </c>
-      <c r="F25" s="37" t="n">
-        <v>13635.63</v>
-      </c>
-      <c r="G25" s="38" t="n">
-        <v>87151.25999999999</v>
-      </c>
-      <c r="H25" s="38" t="n">
-        <v>658357.9299999999</v>
-      </c>
-      <c r="I25" s="37" t="n">
-        <v>751915.22</v>
-      </c>
+      <c r="B25" s="30" t="n">
+        <v>436103.41</v>
+      </c>
+      <c r="C25" s="31" t="n">
+        <v>448335.55</v>
+      </c>
+      <c r="D25" s="17" t="n"/>
+      <c r="E25" s="17" t="n"/>
+      <c r="F25" s="17" t="n"/>
+      <c r="G25" s="18" t="n"/>
+      <c r="H25" s="18" t="n"/>
+      <c r="I25" s="17" t="n"/>
       <c r="J25" s="8" t="n"/>
       <c r="K25" s="9" t="n"/>
       <c r="L25" s="2" t="n"/>
@@ -1740,9 +1712,17 @@
       <c r="S25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="n"/>
-      <c r="B26" s="12" t="n"/>
-      <c r="C26" s="14" t="n"/>
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>19021.77</v>
+      </c>
+      <c r="C26" s="31" t="n">
+        <v>19021.77</v>
+      </c>
       <c r="D26" s="17" t="n"/>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
@@ -1761,16 +1741,16 @@
       <c r="S26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="31" t="inlineStr">
+      <c r="A27" s="35" t="inlineStr">
         <is>
-          <t>Imperial Homes</t>
+          <t>Toplam</t>
         </is>
       </c>
-      <c r="B27" s="32" t="n">
-        <v>336681.28</v>
-      </c>
-      <c r="C27" s="33" t="n">
-        <v>403756.28</v>
+      <c r="B27" s="39" t="n">
+        <v>814430.51</v>
+      </c>
+      <c r="C27" s="40" t="n">
+        <v>893737.65</v>
       </c>
       <c r="D27" s="17" t="n"/>
       <c r="E27" s="17" t="n"/>
@@ -1790,17 +1770,9 @@
       <c r="S27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="B28" s="32" t="n">
-        <v>66044.41</v>
-      </c>
-      <c r="C28" s="33" t="n">
-        <v>66044.41</v>
-      </c>
+      <c r="A28" s="10" t="n"/>
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" s="14" t="n"/>
       <c r="D28" s="17" t="n"/>
       <c r="E28" s="17" t="n"/>
       <c r="F28" s="17" t="n"/>
@@ -1819,17 +1791,9 @@
       <c r="S28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="31" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="B29" s="32" t="n">
-        <v>246800.56</v>
-      </c>
-      <c r="C29" s="33" t="n">
-        <v>265782.85</v>
-      </c>
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" s="14" t="n"/>
       <c r="D29" s="17" t="n"/>
       <c r="E29" s="17" t="n"/>
       <c r="F29" s="17" t="n"/>
@@ -1848,17 +1812,9 @@
       <c r="S29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="31" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="B30" s="32" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="C30" s="33" t="n">
-        <v>16331.68</v>
-      </c>
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" s="14" t="n"/>
       <c r="D30" s="17" t="n"/>
       <c r="E30" s="17" t="n"/>
       <c r="F30" s="17" t="n"/>
@@ -1877,17 +1833,9 @@
       <c r="S30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="36" t="inlineStr">
-        <is>
-          <t>Toplam</t>
-        </is>
-      </c>
-      <c r="B31" s="39" t="n">
-        <v>658357.9300000001</v>
-      </c>
-      <c r="C31" s="40" t="n">
-        <v>751915.2200000001</v>
-      </c>
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="12" t="n"/>
+      <c r="C31" s="14" t="n"/>
       <c r="D31" s="17" t="n"/>
       <c r="E31" s="17" t="n"/>
       <c r="F31" s="17" t="n"/>
@@ -11346,9 +11294,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -11369,34 +11317,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>İmperial Homes</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="K1" s="30" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="P1" s="30" t="inlineStr">
+      <c r="P1" s="27" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="29">
-      <c r="A2" s="29" t="inlineStr">
+    <row r="2" customFormat="1" s="20">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>Müşteri</t>
         </is>
       </c>
-      <c r="B2" s="29" t="n">
+      <c r="B2" s="20" t="n">
         <v>2022</v>
       </c>
       <c r="C2" s="21" t="inlineStr">
@@ -11409,12 +11357,12 @@
           <t>Toplam (DDP)</t>
         </is>
       </c>
-      <c r="F2" s="29" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>Müşteri</t>
         </is>
       </c>
-      <c r="G2" s="29" t="n">
+      <c r="G2" s="20" t="n">
         <v>2022</v>
       </c>
       <c r="H2" s="21" t="inlineStr">
@@ -11427,12 +11375,12 @@
           <t>Toplam (DDP)</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr">
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>Müşteri</t>
         </is>
       </c>
-      <c r="L2" s="29" t="n">
+      <c r="L2" s="20" t="n">
         <v>2022</v>
       </c>
       <c r="M2" s="21" t="inlineStr">
@@ -11445,12 +11393,12 @@
           <t>Toplam (DDP)</t>
         </is>
       </c>
-      <c r="P2" s="29" t="inlineStr">
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>Müşteri</t>
         </is>
       </c>
-      <c r="Q2" s="29" t="n">
+      <c r="Q2" s="20" t="n">
         <v>2022</v>
       </c>
       <c r="R2" s="21" t="inlineStr">
@@ -11471,7 +11419,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>147852.37</v>
+        <v>0</v>
       </c>
       <c r="C3" s="41" t="n">
         <v>336681.28</v>
@@ -11485,41 +11433,41 @@
         </is>
       </c>
       <c r="G3" s="41" t="n">
-        <v>32837.65</v>
+        <v>41728.8</v>
       </c>
       <c r="H3" s="41" t="n">
-        <v>32837.65</v>
+        <v>43491.3</v>
       </c>
       <c r="I3" s="41" t="n">
-        <v>34207.65</v>
+        <v>43491.3</v>
       </c>
       <c r="K3" s="41" t="inlineStr">
         <is>
-          <t>Cem Mermer (Cemalettin)</t>
+          <t>Ds Antik Mermer</t>
         </is>
       </c>
       <c r="L3" s="41" t="n">
-        <v>16882.26</v>
+        <v>2288.36</v>
       </c>
       <c r="M3" s="41" t="n">
-        <v>16882.26</v>
+        <v>2288.36</v>
       </c>
       <c r="N3" s="41" t="n">
-        <v>16882.26</v>
+        <v>2288.36</v>
       </c>
       <c r="P3" s="41" t="inlineStr">
         <is>
-          <t>Villo Home - USA</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="Q3" s="41" t="n">
-        <v>8831.68</v>
+        <v>4818.95</v>
       </c>
       <c r="R3" s="41" t="n">
-        <v>8831.68</v>
+        <v>4818.95</v>
       </c>
       <c r="S3" s="41" t="n">
-        <v>16331.68</v>
+        <v>4818.95</v>
       </c>
     </row>
     <row r="4" customFormat="1" s="19">
@@ -11529,7 +11477,7 @@
         </is>
       </c>
       <c r="B4" s="42" t="n">
-        <v>147852.37</v>
+        <v>0</v>
       </c>
       <c r="C4" s="42" t="n">
         <v>336681.28</v>
@@ -11539,339 +11487,281 @@
       </c>
       <c r="F4" s="41" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="G4" s="41" t="n">
-        <v>4781.16</v>
+        <v>91004.86</v>
       </c>
       <c r="H4" s="41" t="n">
-        <v>4781.16</v>
+        <v>91004.86</v>
       </c>
       <c r="I4" s="41" t="n">
-        <v>4781.16</v>
+        <v>91004.86</v>
       </c>
       <c r="K4" s="41" t="inlineStr">
         <is>
-          <t>Dilamar Mermer</t>
+          <t>Sanya Dogaltas - Turkey</t>
         </is>
       </c>
       <c r="L4" s="41" t="n">
-        <v>627.9</v>
+        <v>0</v>
       </c>
       <c r="M4" s="41" t="n">
-        <v>627.9</v>
+        <v>420</v>
       </c>
       <c r="N4" s="41" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="P4" s="42" t="inlineStr">
+        <v>420</v>
+      </c>
+      <c r="P4" s="41" t="inlineStr">
+        <is>
+          <t>Villo Home - USA</t>
+        </is>
+      </c>
+      <c r="Q4" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="41" t="n">
+        <v>14202.82</v>
+      </c>
+      <c r="S4" s="41" t="n">
+        <v>14202.82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" s="19">
+      <c r="F5" s="41" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="G5" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41" t="n">
+        <v>42037</v>
+      </c>
+      <c r="I5" s="41" t="n">
+        <v>42037</v>
+      </c>
+      <c r="K5" s="41" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="L5" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41" t="n">
+        <v>9198.49</v>
+      </c>
+      <c r="N5" s="41" t="n">
+        <v>9198.49</v>
+      </c>
+      <c r="P5" s="42" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="Q4" s="42" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="R4" s="42" t="n">
-        <v>8831.68</v>
-      </c>
-      <c r="S4" s="42" t="n">
-        <v>16331.68</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" s="19">
-      <c r="F5" s="41" t="inlineStr">
-        <is>
-          <t>VEIK - UAE</t>
-        </is>
-      </c>
-      <c r="G5" s="41" t="n">
-        <v>31103.32</v>
-      </c>
-      <c r="H5" s="41" t="n">
-        <v>31103.32</v>
-      </c>
-      <c r="I5" s="41" t="n">
-        <v>30504.09</v>
-      </c>
-      <c r="K5" s="41" t="inlineStr">
-        <is>
-          <t>Sanya Dogaltas - Turkey</t>
-        </is>
-      </c>
-      <c r="L5" s="41" t="n">
-        <v>420</v>
-      </c>
-      <c r="M5" s="41" t="n">
-        <v>420</v>
-      </c>
-      <c r="N5" s="41" t="n">
-        <v>420</v>
+      <c r="Q5" s="42" t="n">
+        <v>4818.95</v>
+      </c>
+      <c r="R5" s="42" t="n">
+        <v>19021.77</v>
+      </c>
+      <c r="S5" s="42" t="n">
+        <v>19021.77</v>
       </c>
     </row>
     <row r="6" customFormat="1" s="19">
       <c r="F6" s="41" t="inlineStr">
         <is>
-          <t>Brian, Copper - USA</t>
+          <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
       <c r="G6" s="41" t="n">
-        <v>11569.69</v>
+        <v>1600</v>
       </c>
       <c r="H6" s="41" t="n">
-        <v>11569.69</v>
+        <v>1600</v>
       </c>
       <c r="I6" s="41" t="n">
-        <v>22519.69</v>
+        <v>1600</v>
       </c>
       <c r="K6" s="41" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Cem Peker</t>
         </is>
       </c>
       <c r="L6" s="41" t="n">
-        <v>8029.82</v>
+        <v>0</v>
       </c>
       <c r="M6" s="41" t="n">
-        <v>8029.82</v>
+        <v>10717.2</v>
       </c>
       <c r="N6" s="41" t="n">
-        <v>8029.82</v>
+        <v>10717.2</v>
       </c>
     </row>
     <row r="7" customFormat="1" s="19">
       <c r="F7" s="41" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Esi Okyere - Ghana</t>
         </is>
       </c>
       <c r="G7" s="41" t="n">
-        <v>35719</v>
+        <v>0</v>
       </c>
       <c r="H7" s="41" t="n">
-        <v>35719</v>
+        <v>9378.35</v>
       </c>
       <c r="I7" s="41" t="n">
-        <v>35719</v>
-      </c>
-      <c r="K7" s="41" t="inlineStr">
+        <v>9378.35</v>
+      </c>
+      <c r="K7" s="42" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Toplam</t>
         </is>
       </c>
-      <c r="L7" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="41" t="n">
-        <v>37324.65</v>
-      </c>
-      <c r="N7" s="41" t="n">
-        <v>37324.65</v>
+      <c r="L7" s="42" t="n">
+        <v>2288.36</v>
+      </c>
+      <c r="M7" s="42" t="n">
+        <v>22624.05</v>
+      </c>
+      <c r="N7" s="42" t="n">
+        <v>22624.05</v>
       </c>
     </row>
     <row r="8" customFormat="1" s="19">
       <c r="F8" s="41" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="G8" s="41" t="n">
-        <v>31108.05</v>
+        <v>0</v>
       </c>
       <c r="H8" s="41" t="n">
-        <v>31108.05</v>
+        <v>35937.21</v>
       </c>
       <c r="I8" s="41" t="n">
-        <v>31108.05</v>
-      </c>
-      <c r="K8" s="41" t="inlineStr">
-        <is>
-          <t>İnze Mermer - Turkey</t>
-        </is>
-      </c>
-      <c r="L8" s="41" t="n">
-        <v>1469.08</v>
-      </c>
-      <c r="M8" s="41" t="n">
-        <v>1469.08</v>
-      </c>
-      <c r="N8" s="41" t="n">
-        <v>1469.08</v>
+        <v>35937.21</v>
       </c>
     </row>
     <row r="9" customFormat="1" s="19">
       <c r="F9" s="41" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
       <c r="G9" s="41" t="n">
-        <v>949.99</v>
+        <v>0</v>
       </c>
       <c r="H9" s="41" t="n">
-        <v>949.99</v>
+        <v>19938.57</v>
       </c>
       <c r="I9" s="41" t="n">
-        <v>1149.99</v>
-      </c>
-      <c r="K9" s="41" t="inlineStr">
-        <is>
-          <t>Yusuf - Turkey</t>
-        </is>
-      </c>
-      <c r="L9" s="41" t="n">
-        <v>1290.7</v>
-      </c>
-      <c r="M9" s="41" t="n">
-        <v>1290.7</v>
-      </c>
-      <c r="N9" s="41" t="n">
-        <v>1290.7</v>
+        <v>25761.61</v>
       </c>
     </row>
     <row r="10" customFormat="1" s="19">
       <c r="F10" s="41" t="inlineStr">
         <is>
-          <t>Esi Okyere - Ghana</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="G10" s="41" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="41" t="n">
-        <v>32317.62</v>
+        <v>71913.2</v>
       </c>
       <c r="I10" s="41" t="n">
-        <v>32317.62</v>
-      </c>
-      <c r="K10" s="42" t="inlineStr">
+        <v>70545.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" s="19">
+      <c r="F11" s="41" t="inlineStr">
+        <is>
+          <t>Henry - Ghana</t>
+        </is>
+      </c>
+      <c r="G11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I11" s="41" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" s="19">
+      <c r="F12" s="41" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="G12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41" t="n">
+        <v>82964.67</v>
+      </c>
+      <c r="I12" s="41" t="n">
+        <v>86564.67</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" s="19">
+      <c r="F13" s="41" t="inlineStr">
+        <is>
+          <t>Donald Gorski - USA</t>
+        </is>
+      </c>
+      <c r="G13" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41" t="n">
+        <v>5356.58</v>
+      </c>
+      <c r="I13" s="41" t="n">
+        <v>5883.68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" s="19">
+      <c r="F14" s="41" t="inlineStr">
+        <is>
+          <t>Mama Abui - Ghana</t>
+        </is>
+      </c>
+      <c r="G14" s="41" t="n">
+        <v>30081.67</v>
+      </c>
+      <c r="H14" s="41" t="n">
+        <v>30081.67</v>
+      </c>
+      <c r="I14" s="41" t="n">
+        <v>33731.67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" s="19">
+      <c r="F15" s="42" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="L10" s="42" t="n">
-        <v>28719.76</v>
-      </c>
-      <c r="M10" s="42" t="n">
-        <v>66044.41</v>
-      </c>
-      <c r="N10" s="42" t="n">
-        <v>66044.41</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" s="19">
-      <c r="F11" s="41" t="inlineStr">
-        <is>
-          <t>Mohammed Al Hoori - Bahrain</t>
-        </is>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" s="19">
-      <c r="F12" s="41" t="inlineStr">
-        <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="G12" s="41" t="n">
-        <v>35937.21</v>
-      </c>
-      <c r="H12" s="41" t="n">
-        <v>35937.21</v>
-      </c>
-      <c r="I12" s="41" t="n">
-        <v>35937.21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" s="19">
-      <c r="F13" s="41" t="inlineStr">
-        <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
-        </is>
-      </c>
-      <c r="G13" s="41" t="n">
-        <v>19938.57</v>
-      </c>
-      <c r="H13" s="41" t="n">
-        <v>19938.57</v>
-      </c>
-      <c r="I13" s="41" t="n">
-        <v>22850.09</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" s="19">
-      <c r="F14" s="41" t="inlineStr">
-        <is>
-          <t>Kirill Nizovskiy - Dubai</t>
-        </is>
-      </c>
-      <c r="G14" s="41" t="n">
-        <v>2160</v>
-      </c>
-      <c r="H14" s="41" t="n">
-        <v>2160</v>
-      </c>
-      <c r="I14" s="41" t="n">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" s="19">
-      <c r="F15" s="41" t="inlineStr">
-        <is>
-          <t>Henry - Ghana</t>
-        </is>
-      </c>
-      <c r="G15" s="41" t="n">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="41" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" s="19">
-      <c r="F16" s="41" t="inlineStr">
-        <is>
-          <t>Thomas Gebing - DE</t>
-        </is>
-      </c>
-      <c r="G16" s="41" t="n">
-        <v>5978.3</v>
-      </c>
-      <c r="H16" s="41" t="n">
-        <v>5978.3</v>
-      </c>
-      <c r="I16" s="41" t="n">
-        <v>10128.3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" s="19">
-      <c r="F17" s="42" t="inlineStr">
-        <is>
-          <t>Toplam</t>
-        </is>
-      </c>
-      <c r="G17" s="42" t="n">
-        <v>214482.94</v>
-      </c>
-      <c r="H17" s="42" t="n">
-        <v>246800.56</v>
-      </c>
-      <c r="I17" s="42" t="n">
-        <v>265782.85</v>
-      </c>
-    </row>
+      <c r="G15" s="42" t="n">
+        <v>164415.33</v>
+      </c>
+      <c r="H15" s="42" t="n">
+        <v>436103.41</v>
+      </c>
+      <c r="I15" s="42" t="n">
+        <v>448335.55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" s="19"/>
+    <row r="17" customFormat="1" s="19"/>
     <row r="18" customFormat="1" s="19"/>
     <row r="19" customFormat="1" s="19"/>
     <row r="20" customFormat="1" s="19"/>
